--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayt\Documents\Programming\RankToGod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AEAD3-AEEC-4516-8832-892EC230DE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE52067-BFB1-4F28-92A7-AF3B6A0972C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-4890" windowWidth="21600" windowHeight="11235" xr2:uid="{53EBDCE9-DC90-442D-9DEA-70CDC5EE881F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53EBDCE9-DC90-442D-9DEA-70CDC5EE881F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>AAPL</t>
+    <t>CRHKY</t>
+  </si>
+  <si>
+    <t>META</t>
   </si>
 </sst>
 </file>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FECC956-5BFE-4AD3-8C38-FD264BA51DA5}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +413,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayt\Documents\Programming\RankToGod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE52067-BFB1-4F28-92A7-AF3B6A0972C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9693AD-9E7C-4A49-97D3-D8DDC5621125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53EBDCE9-DC90-442D-9DEA-70CDC5EE881F}"/>
+    <workbookView xWindow="28680" yWindow="-5970" windowWidth="29040" windowHeight="15720" xr2:uid="{53EBDCE9-DC90-442D-9DEA-70CDC5EE881F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>CRHKY</t>
   </si>
   <si>
-    <t>META</t>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -59,12 +59,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +405,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +421,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayt\Documents\Programming\RankToGod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9693AD-9E7C-4A49-97D3-D8DDC5621125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E1BFB-2208-4219-B856-AFB061880BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5970" windowWidth="29040" windowHeight="15720" xr2:uid="{53EBDCE9-DC90-442D-9DEA-70CDC5EE881F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53EBDCE9-DC90-442D-9DEA-70CDC5EE881F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>CRHKY</t>
+    <t>MSFT</t>
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>NIO</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>TSLA</t>
   </si>
 </sst>
 </file>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FECC956-5BFE-4AD3-8C38-FD264BA51DA5}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,6 +437,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -14,27 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>DIS</t>
+    <t>ADBE</t>
   </si>
   <si>
-    <t>SONY</t>
-  </si>
-  <si>
-    <t>NIO</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>TSLA</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -52,7 +40,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -102,7 +90,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -429,30 +417,22 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
